--- a/DbLayouts/L5-管理性作業/CollMeet.xlsx
+++ b/DbLayouts/L5-管理性作業/CollMeet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34586302-AE55-4ABF-9F4A-E801746C50EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8800DFD8-7599-46A3-ACB4-D13ABDA47766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -270,10 +270,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AcDate&gt;= , AND AcDate&lt;= ,AND CaseCode= ,AND CustNo= ,AND FacmNo= ,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>findSameCust</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -302,10 +298,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">AcDate&gt;= , AND AcDate&lt;= ,AND CaseCode= ,AND CustNo= </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>withoutFacmNoAll</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -315,6 +307,14 @@
   </si>
   <si>
     <t>2021/8/18 已與舜文確認只需填入時間此欄位由6碼改成4碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeetDate&gt;= , AND MeetDate&lt;= ,AND CaseCode= ,AND CustNo= ,AND FacmNo= ,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MeetDate&gt;= , AND MeetDate&lt;= ,AND CaseCode= ,AND CustNo= </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -912,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1249,13 +1249,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="D21" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>72</v>
       </c>
       <c r="E21" s="19">
         <v>1</v>
@@ -1379,9 +1379,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1408,43 +1408,43 @@
         <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
